--- a/Semester_5/AdvancedOpticsLab/Record/Resources/Experiment4b/zeeman.xlsx
+++ b/Semester_5/AdvancedOpticsLab/Record/Resources/Experiment4b/zeeman.xlsx
@@ -287,11 +287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2043838096"/>
-        <c:axId val="2043829936"/>
+        <c:axId val="-7392992"/>
+        <c:axId val="-7401696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2043838096"/>
+        <c:axId val="-7392992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,12 +348,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043829936"/>
+        <c:crossAx val="-7401696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2043829936"/>
+        <c:axId val="-7401696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,7 +410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043838096"/>
+        <c:crossAx val="-7392992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -688,11 +688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99919760"/>
-        <c:axId val="99919216"/>
+        <c:axId val="-7400608"/>
+        <c:axId val="-7391904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99919760"/>
+        <c:axId val="-7400608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,12 +749,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99919216"/>
+        <c:crossAx val="-7391904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99919216"/>
+        <c:axId val="-7391904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99919760"/>
+        <c:crossAx val="-7400608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -874,38 +874,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1068,17 +1037,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99917040"/>
-        <c:axId val="99915408"/>
+        <c:axId val="-7406048"/>
+        <c:axId val="-7542272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99917040"/>
+        <c:axId val="-7406048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1146,12 +1140,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99915408"/>
+        <c:crossAx val="-7542272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99915408"/>
+        <c:axId val="-7542272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,6 +1180,36 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Distance (unit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> irrelevant)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1253,7 +1277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99917040"/>
+        <c:crossAx val="-7406048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,38 +1289,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1539,11 +1531,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97693936"/>
-        <c:axId val="97698832"/>
+        <c:axId val="-7538464"/>
+        <c:axId val="-1997705872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97693936"/>
+        <c:axId val="-7538464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,12 +1592,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97698832"/>
+        <c:crossAx val="-1997705872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97698832"/>
+        <c:axId val="-1997705872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97693936"/>
+        <c:crossAx val="-7538464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1725,38 +1717,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1798,6 +1759,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$A$2:$A$30</c:f>
@@ -2000,11 +2006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99907248"/>
-        <c:axId val="99914320"/>
+        <c:axId val="-1997707504"/>
+        <c:axId val="-1997703152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99907248"/>
+        <c:axId val="-1997707504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,8 +2030,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2061,12 +2137,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99914320"/>
+        <c:crossAx val="-1997703152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99914320"/>
+        <c:axId val="-1997703152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,8 +2162,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Magnetic Field (x10 Gauss)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2123,7 +2269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99907248"/>
+        <c:crossAx val="-1997707504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2167,7 +2313,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5022,8 +5168,8 @@
       <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -5051,16 +5197,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5081,16 +5227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5377,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5820,7 +5966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
